--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2749.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2749.xlsx
@@ -354,7 +354,7 @@
         <v>2.416321938276698</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.367755066900358</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2749.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2749.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159462662132352</v>
+        <v>1.754623889923096</v>
       </c>
       <c r="B1">
-        <v>2.416321938276698</v>
+        <v>2.406201601028442</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.621898174285889</v>
       </c>
       <c r="D1">
-        <v>2.367755066900358</v>
+        <v>3.381045818328857</v>
       </c>
       <c r="E1">
-        <v>1.222343767698799</v>
+        <v>1.316743612289429</v>
       </c>
     </row>
   </sheetData>
